--- a/FPRS FP Key.xlsx
+++ b/FPRS FP Key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwilsoniv/Documents/open2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E347254F-CEDC-8341-8986-532CE001F77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70CD013-B5DA-944E-8A0E-DB6DAA7B6947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{E0432988-A6B7-6546-8BAE-33B1504704C1}"/>
+    <workbookView xWindow="10240" yWindow="1820" windowWidth="28800" windowHeight="16340" xr2:uid="{E0432988-A6B7-6546-8BAE-33B1504704C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="68">
   <si>
     <t>Patient</t>
   </si>
@@ -231,6 +231,15 @@
   </si>
   <si>
     <t>IMG_0579</t>
+  </si>
+  <si>
+    <t>IMG_0592</t>
+  </si>
+  <si>
+    <t>IMG_0861</t>
+  </si>
+  <si>
+    <t>IMG_0942</t>
   </si>
 </sst>
 </file>
@@ -610,13 +619,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615D0A9E-AF70-D448-94AF-BE95A416A179}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1323,57 +1332,57 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
@@ -1397,27 +1406,27 @@
         <v>13</v>
       </c>
       <c r="L19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -1429,7 +1438,7 @@
         <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J20" t="s">
         <v>13</v>
@@ -1438,156 +1447,156 @@
         <v>13</v>
       </c>
       <c r="L20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>16</v>
@@ -1610,7 +1619,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>13</v>
@@ -1625,7 +1634,7 @@
         <v>15</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>15</v>
@@ -1651,9 +1660,9 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1663,13 +1672,13 @@
         <v>13</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>13</v>
@@ -1678,13 +1687,13 @@
         <v>13</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>13</v>
@@ -1692,7 +1701,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>14</v>
@@ -1719,7 +1728,7 @@
         <v>13</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>13</v>
@@ -1728,12 +1737,12 @@
         <v>13</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>13</v>
@@ -1745,10 +1754,10 @@
         <v>13</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>15</v>
@@ -1774,7 +1783,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>13</v>
@@ -1789,7 +1798,7 @@
         <v>15</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>15</v>
@@ -1815,48 +1824,48 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" t="s">
-        <v>13</v>
-      </c>
-      <c r="L30" t="s">
-        <v>16</v>
-      </c>
-      <c r="M30" t="s">
-        <v>13</v>
+        <v>41</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>13</v>
@@ -1871,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>15</v>
@@ -1897,25 +1906,25 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>13</v>
@@ -1924,13 +1933,13 @@
         <v>13</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>13</v>
@@ -1938,51 +1947,51 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>13</v>
@@ -1991,16 +2000,16 @@
         <v>13</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>13</v>
@@ -2020,25 +2029,25 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>13</v>
@@ -2047,13 +2056,13 @@
         <v>13</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>13</v>
@@ -2061,40 +2070,40 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>13</v>
@@ -2102,28 +2111,28 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>13</v>
@@ -2135,97 +2144,97 @@
         <v>13</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" t="s">
-        <v>13</v>
-      </c>
-      <c r="J38" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" t="s">
-        <v>13</v>
-      </c>
-      <c r="L38" t="s">
-        <v>13</v>
-      </c>
-      <c r="M38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" t="s">
-        <v>13</v>
-      </c>
-      <c r="L39" t="s">
-        <v>13</v>
-      </c>
-      <c r="M39" t="s">
-        <v>16</v>
+        <v>50</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>15</v>
@@ -2266,107 +2275,107 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" t="s">
+        <v>13</v>
+      </c>
+      <c r="L41" t="s">
+        <v>13</v>
+      </c>
+      <c r="M41" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42" t="s">
+        <v>13</v>
+      </c>
+      <c r="M42" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>13</v>
@@ -2378,121 +2387,121 @@
         <v>13</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" t="s">
-        <v>13</v>
-      </c>
-      <c r="J44" t="s">
-        <v>13</v>
-      </c>
-      <c r="K44" t="s">
-        <v>13</v>
-      </c>
-      <c r="L44" t="s">
-        <v>16</v>
-      </c>
-      <c r="M44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" t="s">
-        <v>13</v>
-      </c>
-      <c r="J45" t="s">
-        <v>13</v>
-      </c>
-      <c r="K45" t="s">
-        <v>13</v>
-      </c>
-      <c r="L45" t="s">
-        <v>13</v>
-      </c>
-      <c r="M45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>13</v>
@@ -2501,10 +2510,10 @@
         <v>13</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>13</v>
@@ -2512,124 +2521,247 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" t="s">
+        <v>13</v>
+      </c>
+      <c r="L47" t="s">
+        <v>16</v>
+      </c>
+      <c r="M47" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" t="s">
+        <v>13</v>
+      </c>
+      <c r="L48" t="s">
+        <v>13</v>
+      </c>
+      <c r="M48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M49" s="1" t="s">
+      <c r="B52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M52" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/FPRS FP Key.xlsx
+++ b/FPRS FP Key.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwilsoniv/Documents/open2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70CD013-B5DA-944E-8A0E-DB6DAA7B6947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858B0328-AE04-2147-8137-8921927E274F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="1820" windowWidth="28800" windowHeight="16340" xr2:uid="{E0432988-A6B7-6546-8BAE-33B1504704C1}"/>
+    <workbookView xWindow="4000" yWindow="4020" windowWidth="28800" windowHeight="16260" xr2:uid="{E0432988-A6B7-6546-8BAE-33B1504704C1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FPRS FP Key" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="72">
   <si>
     <t>Patient</t>
   </si>
@@ -240,6 +240,18 @@
   </si>
   <si>
     <t>IMG_0942</t>
+  </si>
+  <si>
+    <t>Mentalis Synkinesis Left</t>
+  </si>
+  <si>
+    <t>Mentalis Synkinesis Right</t>
+  </si>
+  <si>
+    <t>Hypertonicity Left</t>
+  </si>
+  <si>
+    <t>Hypertonicity Right</t>
   </si>
 </sst>
 </file>
@@ -619,21 +631,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615D0A9E-AF70-D448-94AF-BE95A416A179}">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -673,8 +701,20 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -714,8 +754,20 @@
       <c r="M2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -755,8 +807,20 @@
       <c r="M3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -796,8 +860,20 @@
       <c r="M4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -837,8 +913,20 @@
       <c r="M5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -878,8 +966,20 @@
       <c r="M6" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -914,13 +1014,25 @@
         <v>13</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -960,8 +1072,20 @@
       <c r="M8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1001,8 +1125,20 @@
       <c r="M9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1042,8 +1178,20 @@
       <c r="M10" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1083,8 +1231,20 @@
       <c r="M11" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1124,8 +1284,20 @@
       <c r="M12" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1165,8 +1337,20 @@
       <c r="M13" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1206,8 +1390,20 @@
       <c r="M14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1247,8 +1443,20 @@
       <c r="M15" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1288,8 +1496,20 @@
       <c r="M16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -1329,8 +1549,20 @@
       <c r="M17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" t="s">
+        <v>13</v>
+      </c>
+      <c r="P17" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -1370,8 +1602,20 @@
       <c r="M18" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1411,8 +1655,20 @@
       <c r="M19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1452,8 +1708,20 @@
       <c r="M20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" t="s">
+        <v>13</v>
+      </c>
+      <c r="P20" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -1493,8 +1761,20 @@
       <c r="M21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" t="s">
+        <v>13</v>
+      </c>
+      <c r="P21" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1534,8 +1814,20 @@
       <c r="M22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" t="s">
+        <v>13</v>
+      </c>
+      <c r="P22" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -1575,8 +1867,20 @@
       <c r="M23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1616,8 +1920,20 @@
       <c r="M24" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1657,8 +1973,20 @@
       <c r="M25" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1698,8 +2026,20 @@
       <c r="M26" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1739,8 +2079,20 @@
       <c r="M27" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1780,8 +2132,20 @@
       <c r="M28" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1821,8 +2185,20 @@
       <c r="M29" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1862,8 +2238,20 @@
       <c r="M30" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1903,8 +2291,20 @@
       <c r="M31" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1944,8 +2344,20 @@
       <c r="M32" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1980,13 +2392,25 @@
         <v>13</v>
       </c>
       <c r="L33" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2026,8 +2450,20 @@
       <c r="M34" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2067,8 +2503,20 @@
       <c r="M35" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2108,8 +2556,20 @@
       <c r="M36" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2149,8 +2609,20 @@
       <c r="M37" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2190,8 +2662,20 @@
       <c r="M38" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2231,8 +2715,20 @@
       <c r="M39" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2272,8 +2768,20 @@
       <c r="M40" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2313,8 +2821,20 @@
       <c r="M41" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2354,8 +2874,20 @@
       <c r="M42" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2393,10 +2925,22 @@
         <v>13</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2431,13 +2975,25 @@
         <v>13</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2477,8 +3033,20 @@
       <c r="M45" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2518,8 +3086,20 @@
       <c r="M46" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2557,10 +3137,22 @@
         <v>16</v>
       </c>
       <c r="M47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2595,13 +3187,25 @@
         <v>13</v>
       </c>
       <c r="L48" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M48" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2641,8 +3245,20 @@
       <c r="M49" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2677,13 +3293,25 @@
         <v>13</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2723,8 +3351,20 @@
       <c r="M51" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2759,9 +3399,21 @@
         <v>13</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q52" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/FPRS FP Key.xlsx
+++ b/FPRS FP Key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwilsoniv/Documents/open2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858B0328-AE04-2147-8137-8921927E274F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BF0449-4F81-D54E-81B3-0959B74EC8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="4020" windowWidth="28800" windowHeight="16260" xr2:uid="{E0432988-A6B7-6546-8BAE-33B1504704C1}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="13840" windowHeight="16260" xr2:uid="{E0432988-A6B7-6546-8BAE-33B1504704C1}"/>
   </bookViews>
   <sheets>
     <sheet name="FPRS FP Key" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="74">
   <si>
     <t>Patient</t>
   </si>
@@ -252,6 +252,12 @@
   </si>
   <si>
     <t>Hypertonicity Right</t>
+  </si>
+  <si>
+    <t>Cocked Left</t>
+  </si>
+  <si>
+    <t>Cocked Right</t>
   </si>
 </sst>
 </file>
@@ -631,13 +637,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615D0A9E-AF70-D448-94AF-BE95A416A179}">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O42" sqref="O42"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -661,7 +667,7 @@
     <col min="17" max="17" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -713,8 +719,14 @@
       <c r="Q1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -766,8 +778,14 @@
       <c r="Q2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -819,8 +837,14 @@
       <c r="Q3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -872,8 +896,14 @@
       <c r="Q4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -925,8 +955,14 @@
       <c r="Q5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -978,8 +1014,14 @@
       <c r="Q6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1031,8 +1073,14 @@
       <c r="Q7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1084,8 +1132,14 @@
       <c r="Q8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1137,8 +1191,14 @@
       <c r="Q9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1190,8 +1250,14 @@
       <c r="Q10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1243,8 +1309,14 @@
       <c r="Q11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" t="s">
+        <v>13</v>
+      </c>
+      <c r="S11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1296,8 +1368,14 @@
       <c r="Q12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1347,10 +1425,16 @@
         <v>16</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="R13" t="s">
+        <v>13</v>
+      </c>
+      <c r="S13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1402,8 +1486,14 @@
       <c r="Q14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" t="s">
+        <v>13</v>
+      </c>
+      <c r="S14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1453,10 +1543,16 @@
         <v>13</v>
       </c>
       <c r="Q15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="R15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1508,8 +1604,14 @@
       <c r="Q16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -1561,8 +1663,14 @@
       <c r="Q17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" t="s">
+        <v>13</v>
+      </c>
+      <c r="S17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -1614,8 +1722,14 @@
       <c r="Q18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18" t="s">
+        <v>13</v>
+      </c>
+      <c r="S18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1667,8 +1781,14 @@
       <c r="Q19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19" t="s">
+        <v>13</v>
+      </c>
+      <c r="S19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1720,8 +1840,14 @@
       <c r="Q20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20" t="s">
+        <v>13</v>
+      </c>
+      <c r="S20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -1773,8 +1899,14 @@
       <c r="Q21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21" t="s">
+        <v>13</v>
+      </c>
+      <c r="S21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1818,16 +1950,22 @@
         <v>13</v>
       </c>
       <c r="O22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P22" t="s">
         <v>13</v>
       </c>
       <c r="Q22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="R22" t="s">
+        <v>13</v>
+      </c>
+      <c r="S22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -1879,8 +2017,14 @@
       <c r="Q23" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23" t="s">
+        <v>13</v>
+      </c>
+      <c r="S23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1932,8 +2076,14 @@
       <c r="Q24" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24" t="s">
+        <v>13</v>
+      </c>
+      <c r="S24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1983,10 +2133,16 @@
         <v>16</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="R25" t="s">
+        <v>16</v>
+      </c>
+      <c r="S25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2038,8 +2194,14 @@
       <c r="Q26" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2077,7 +2239,7 @@
         <v>13</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>16</v>
@@ -2091,8 +2253,14 @@
       <c r="Q27" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2144,8 +2312,14 @@
       <c r="Q28" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2197,8 +2371,14 @@
       <c r="Q29" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2250,8 +2430,14 @@
       <c r="Q30" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2303,8 +2489,14 @@
       <c r="Q31" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2356,8 +2548,14 @@
       <c r="Q32" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2409,8 +2607,14 @@
       <c r="Q33" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2436,7 +2640,7 @@
         <v>13</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>13</v>
@@ -2462,8 +2666,14 @@
       <c r="Q34" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2515,8 +2725,14 @@
       <c r="Q35" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2568,8 +2784,14 @@
       <c r="Q36" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2621,8 +2843,14 @@
       <c r="Q37" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2674,8 +2902,14 @@
       <c r="Q38" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2727,8 +2961,14 @@
       <c r="Q39" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2780,8 +3020,14 @@
       <c r="Q40" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2833,8 +3079,14 @@
       <c r="Q41" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2886,8 +3138,14 @@
       <c r="Q42" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2916,7 +3174,7 @@
         <v>13</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>13</v>
@@ -2925,7 +3183,7 @@
         <v>13</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>16</v>
@@ -2939,8 +3197,14 @@
       <c r="Q43" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2992,8 +3256,14 @@
       <c r="Q44" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -3028,7 +3298,7 @@
         <v>13</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>13</v>
@@ -3045,8 +3315,14 @@
       <c r="Q45" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -3078,7 +3354,7 @@
         <v>13</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>16</v>
@@ -3098,8 +3374,14 @@
       <c r="Q46" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -3151,8 +3433,14 @@
       <c r="Q47" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -3204,8 +3492,14 @@
       <c r="Q48" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -3257,8 +3551,14 @@
       <c r="Q49" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -3281,7 +3581,7 @@
         <v>15</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>13</v>
@@ -3310,8 +3610,14 @@
       <c r="Q50" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -3363,8 +3669,14 @@
       <c r="Q51" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -3414,6 +3726,12 @@
         <v>13</v>
       </c>
       <c r="Q52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S52" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/FPRS FP Key.xlsx
+++ b/FPRS FP Key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwilsoniv/Documents/open2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwilsoniv/Documents/open2 GR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BF0449-4F81-D54E-81B3-0959B74EC8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FC0027-0819-CD4A-979E-424A6A8AC6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="13840" windowHeight="16260" xr2:uid="{E0432988-A6B7-6546-8BAE-33B1504704C1}"/>
+    <workbookView xWindow="4900" yWindow="800" windowWidth="23900" windowHeight="16260" xr2:uid="{E0432988-A6B7-6546-8BAE-33B1504704C1}"/>
   </bookViews>
   <sheets>
     <sheet name="FPRS FP Key" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="136">
   <si>
     <t>Patient</t>
   </si>
@@ -254,17 +254,1325 @@
     <t>Hypertonicity Right</t>
   </si>
   <si>
-    <t>Cocked Left</t>
-  </si>
-  <si>
-    <t>Cocked Right</t>
+    <r>
+      <t>20250410_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1518</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>06000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20250409_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1241</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>59000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20250408_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1913</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>22000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20250402_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1333</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>47000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20250327_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1208</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>39000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20250326_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>59000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20250326_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1840</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>59000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20250313_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1959</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>44000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20250313_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1832</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>42000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20250312_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1248</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20250311_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1750</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20250305_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1846</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>49000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20250305_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1846</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>17000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20250304_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1658</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>47000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20250228_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1348</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20250225_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>36000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20250225_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1617</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>39000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20250213_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1930</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>56000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20250213_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1609</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>05000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20250211_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1743</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20250211_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1708</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>17000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20250204_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1804</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>09000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20250204_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1741</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>55000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20250114_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1857</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>38000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20250109_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1302</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20250107_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2040</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>41000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20241120_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1822</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20241119_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1605</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>08000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20241115_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1830</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>47000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20241112_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1854</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>26000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20241106_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1856</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>58000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20241106_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1445</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20241105_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1826</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>38000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20240918_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1700</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>56000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20240905_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1838</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>57000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20240903_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1605</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>58000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20240903_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1457</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20240821_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1730</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20240821_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1527</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>38000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20240820_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1737</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>37000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20240820_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1533</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>46000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20240820_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1521</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20240820_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1413</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>06000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20240806_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1405</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20240731_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1923</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>57000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20240731_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1818</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>57000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20240730_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1729</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20240730_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1530</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>31000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20240730_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1348</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20240723_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1850</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20240723_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1759</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>47000_iOS</t>
+    </r>
+  </si>
+  <si>
+    <t>Not Assessed</t>
+  </si>
+  <si>
+    <t>IMG_1602</t>
+  </si>
+  <si>
+    <t>IMG_1368</t>
+  </si>
+  <si>
+    <t>IMG_1366</t>
+  </si>
+  <si>
+    <t>Brow Cocked Left</t>
+  </si>
+  <si>
+    <t>Brow Cocked Right</t>
+  </si>
+  <si>
+    <t>IMG_5198</t>
+  </si>
+  <si>
+    <t>IMG_6177</t>
+  </si>
+  <si>
+    <t>IMG_7251</t>
+  </si>
+  <si>
+    <t>IMG_7540</t>
+  </si>
+  <si>
+    <t>IMG_8270</t>
+  </si>
+  <si>
+    <t>IMG_8401</t>
+  </si>
+  <si>
+    <t>Fitzpatrick</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,13 +1587,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -300,9 +1627,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,18 +1966,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615D0A9E-AF70-D448-94AF-BE95A416A179}">
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:T112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
@@ -667,7 +1996,7 @@
     <col min="17" max="17" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -720,13 +2049,16 @@
         <v>71</v>
       </c>
       <c r="R1" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="S1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="T1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -784,8 +2116,11 @@
       <c r="S2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -843,8 +2178,11 @@
       <c r="S3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -902,8 +2240,11 @@
       <c r="S4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -961,8 +2302,11 @@
       <c r="S5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1020,8 +2364,11 @@
       <c r="S6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1079,8 +2426,11 @@
       <c r="S7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1138,8 +2488,11 @@
       <c r="S8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1197,8 +2550,11 @@
       <c r="S9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1256,13 +2612,16 @@
       <c r="S10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
@@ -1271,7 +2630,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
@@ -1315,8 +2674,11 @@
       <c r="S11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1374,8 +2736,11 @@
       <c r="S12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1404,7 +2769,7 @@
         <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>13</v>
@@ -1433,8 +2798,11 @@
       <c r="S13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1492,13 +2860,16 @@
       <c r="S14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
@@ -1534,7 +2905,7 @@
         <v>16</v>
       </c>
       <c r="N15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O15" t="s">
         <v>13</v>
@@ -1551,8 +2922,11 @@
       <c r="S15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1610,8 +2984,11 @@
       <c r="S16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -1643,7 +3020,7 @@
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L17" t="s">
         <v>13</v>
@@ -1669,8 +3046,11 @@
       <c r="S17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -1711,10 +3091,10 @@
         <v>13</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>16</v>
@@ -1728,8 +3108,11 @@
       <c r="S18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1787,8 +3170,11 @@
       <c r="S19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1838,7 +3224,7 @@
         <v>13</v>
       </c>
       <c r="Q20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R20" t="s">
         <v>13</v>
@@ -1846,8 +3232,11 @@
       <c r="S20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -1905,8 +3294,11 @@
       <c r="S21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1935,7 +3327,7 @@
         <v>16</v>
       </c>
       <c r="J22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K22" t="s">
         <v>13</v>
@@ -1964,13 +3356,16 @@
       <c r="S22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
@@ -1979,7 +3374,7 @@
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
@@ -2023,8 +3418,11 @@
       <c r="S23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2082,10 +3480,13 @@
       <c r="S24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>13</v>
@@ -2106,7 +3507,7 @@
         <v>15</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>13</v>
@@ -2115,16 +3516,16 @@
         <v>13</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>16</v>
@@ -2135,18 +3536,21 @@
       <c r="Q25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R25" t="s">
-        <v>16</v>
-      </c>
-      <c r="S25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2156,43 +3560,43 @@
         <v>13</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>13</v>
@@ -2200,10 +3604,13 @@
       <c r="S26" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>14</v>
@@ -2212,46 +3619,46 @@
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>13</v>
@@ -2259,10 +3666,13 @@
       <c r="S27" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>13</v>
@@ -2277,7 +3687,7 @@
         <v>15</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>15</v>
@@ -2310,20 +3720,23 @@
         <v>16</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="R28" t="s">
+        <v>16</v>
+      </c>
+      <c r="S28" t="s">
+        <v>13</v>
+      </c>
+      <c r="T28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2333,13 +3746,13 @@
         <v>13</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>13</v>
@@ -2348,28 +3761,28 @@
         <v>13</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>13</v>
@@ -2377,10 +3790,13 @@
       <c r="S29" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>13</v>
@@ -2407,7 +3823,7 @@
         <v>13</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>13</v>
@@ -2425,7 +3841,7 @@
         <v>13</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>13</v>
@@ -2436,718 +3852,757 @@
       <c r="S30" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" t="s">
+        <v>13</v>
+      </c>
+      <c r="M36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="G37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" t="s">
-        <v>13</v>
-      </c>
-      <c r="K33" t="s">
-        <v>13</v>
-      </c>
-      <c r="L33" t="s">
-        <v>13</v>
-      </c>
-      <c r="M33" t="s">
-        <v>16</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="H39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>51</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" t="s">
-        <v>13</v>
-      </c>
-      <c r="J41" t="s">
-        <v>16</v>
-      </c>
-      <c r="K41" t="s">
-        <v>13</v>
-      </c>
-      <c r="L41" t="s">
-        <v>13</v>
-      </c>
-      <c r="M41" t="s">
-        <v>13</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" t="s">
-        <v>13</v>
-      </c>
-      <c r="J42" t="s">
-        <v>16</v>
-      </c>
-      <c r="K42" t="s">
-        <v>13</v>
-      </c>
-      <c r="L42" t="s">
-        <v>13</v>
-      </c>
-      <c r="M42" t="s">
-        <v>16</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>54</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>15</v>
@@ -3174,10 +4629,10 @@
         <v>13</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>13</v>
@@ -3192,10 +4647,10 @@
         <v>13</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>13</v>
@@ -3203,482 +4658,509 @@
       <c r="S43" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" t="s">
+        <v>13</v>
+      </c>
+      <c r="L44" t="s">
+        <v>13</v>
+      </c>
+      <c r="M44" t="s">
+        <v>13</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" t="s">
+        <v>13</v>
+      </c>
+      <c r="L45" t="s">
+        <v>13</v>
+      </c>
+      <c r="M45" t="s">
+        <v>16</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="1" t="s">
+      <c r="B47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="H47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="B49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="H49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>57</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J47" t="s">
-        <v>13</v>
-      </c>
-      <c r="K47" t="s">
-        <v>13</v>
-      </c>
-      <c r="L47" t="s">
-        <v>16</v>
-      </c>
-      <c r="M47" t="s">
-        <v>16</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" t="s">
-        <v>13</v>
-      </c>
-      <c r="K48" t="s">
-        <v>13</v>
-      </c>
-      <c r="L48" t="s">
-        <v>16</v>
-      </c>
-      <c r="M48" t="s">
-        <v>13</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>63</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>13</v>
@@ -3693,10 +5175,10 @@
         <v>14</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>13</v>
@@ -3714,13 +5196,13 @@
         <v>16</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>13</v>
@@ -3729,13 +5211,3737 @@
         <v>13</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="S52" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="T52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" t="s">
+        <v>13</v>
+      </c>
+      <c r="L56" t="s">
+        <v>16</v>
+      </c>
+      <c r="M56" t="s">
+        <v>16</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" t="s">
+        <v>16</v>
+      </c>
+      <c r="L57" t="s">
+        <v>16</v>
+      </c>
+      <c r="M57" t="s">
+        <v>13</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>100</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>108</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>110</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R103" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S103" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>114</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>117</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>118</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>119</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>121</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>122</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T112">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>